--- a/Data/EC/NIT-9008815961.xlsx
+++ b/Data/EC/NIT-9008815961.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1865552E-6FE1-44CA-890D-C4591E739AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B88728-F6A9-4BB8-A209-8F3ADB169C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DBAEB855-9B3F-4A1C-B8CA-4F66241C8970}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5405E7E-ADA6-4490-858F-7DAED50F8002}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F1AEE0-0DD9-04DC-E0BC-82EBCE9661FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C0E4BF-4799-8F39-C91F-F0DC138B1C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,28 +785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03134E5F-DBD8-490E-8225-9587107731D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0266D01-0D4C-45D9-AB21-9EA2B7B7DC10}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23" t="s">
@@ -819,7 +819,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="22"/>
       <c r="D3" s="24"/>
@@ -830,7 +830,7 @@
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="22"/>
       <c r="D4" s="24"/>
@@ -841,7 +841,7 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
@@ -852,8 +852,8 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -868,8 +868,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,8 +884,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -900,8 +900,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="26" t="s">
         <v>20</v>
       </c>

--- a/Data/EC/NIT-9008815961.xlsx
+++ b/Data/EC/NIT-9008815961.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B88728-F6A9-4BB8-A209-8F3ADB169C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82214BE-591E-43DE-887A-EA4999EAE348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5405E7E-ADA6-4490-858F-7DAED50F8002}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1AAED563-7360-4A98-9122-D566F4837414}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +170,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -183,9 +185,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,23 +340,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,10 +378,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C0E4BF-4799-8F39-C91F-F0DC138B1C2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D75A03-CF68-1555-2B5B-F0EB5AE6C282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,28 +785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0266D01-0D4C-45D9-AB21-9EA2B7B7DC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28328A28-608A-4EAB-B3DF-26D58F2EF673}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23" t="s">
@@ -819,7 +819,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="22"/>
       <c r="D3" s="24"/>
@@ -830,7 +830,7 @@
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="22"/>
       <c r="D4" s="24"/>
@@ -841,7 +841,7 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
@@ -852,8 +852,8 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -868,8 +868,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,8 +884,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -900,8 +900,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="26" t="s">
         <v>20</v>
       </c>

--- a/Data/EC/NIT-9008815961.xlsx
+++ b/Data/EC/NIT-9008815961.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82214BE-591E-43DE-887A-EA4999EAE348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6023C0C-C259-468E-A7DA-312F4FFB85E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1AAED563-7360-4A98-9122-D566F4837414}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{97137F04-28CF-4371-926A-CF4E07B6631F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,9 +170,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -185,7 +183,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -334,29 +334,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,13 +375,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,7 +437,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D75A03-CF68-1555-2B5B-F0EB5AE6C282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A8E926-A227-1A48-0851-DB02862025D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,80 +788,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28328A28-608A-4EAB-B3DF-26D58F2EF673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2602CB-2D1A-4398-8AF2-4B543D18D58B}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -868,13 +871,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="6">
         <v>9008815961</v>
       </c>
@@ -884,13 +887,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7">
         <v>52000</v>
       </c>
@@ -900,8 +903,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -920,7 +923,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -949,7 +952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -959,35 +962,35 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>52000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1300000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="26" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
